--- a/graph formating.xlsx
+++ b/graph formating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leont\Documents\Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3746F6-9828-47AE-8363-13692172C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A109E-819C-4DDC-A5DB-9A9E06FA7994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19490" yWindow="8010" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{1263F00C-7C01-405D-9EC5-9FD5EDB8F728}"/>
+    <workbookView xWindow="-5760" yWindow="-380" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{1263F00C-7C01-405D-9EC5-9FD5EDB8F728}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2708,6 +2708,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -14469,16 +14500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14507,16 +14538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16409,7 +16440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EDFB2-4CC3-4935-86A1-CD97B0CA0366}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AA57" sqref="AA57"/>
     </sheetView>
   </sheetViews>
